--- a/im2xls.xlsx
+++ b/im2xls.xlsx
@@ -10984,60 +10984,60 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="5" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
-    <col width="5" customWidth="1" min="9" max="9"/>
-    <col width="5" customWidth="1" min="10" max="10"/>
-    <col width="5" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
-    <col width="5" customWidth="1" min="18" max="18"/>
-    <col width="5" customWidth="1" min="19" max="19"/>
-    <col width="5" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
-    <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
-    <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
-    <col width="5" customWidth="1" min="27" max="27"/>
-    <col width="5" customWidth="1" min="28" max="28"/>
-    <col width="5" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
-    <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
-    <col width="5" customWidth="1" min="36" max="36"/>
-    <col width="5" customWidth="1" min="37" max="37"/>
-    <col width="5" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
-    <col width="5" customWidth="1" min="45" max="45"/>
-    <col width="5" customWidth="1" min="46" max="46"/>
-    <col width="5" customWidth="1" min="47" max="47"/>
-    <col width="5" customWidth="1" min="48" max="48"/>
-    <col width="5" customWidth="1" min="49" max="49"/>
-    <col width="5" customWidth="1" min="50" max="50"/>
+    <col width="1" customWidth="1" min="1" max="1"/>
+    <col width="1" customWidth="1" min="2" max="2"/>
+    <col width="1" customWidth="1" min="3" max="3"/>
+    <col width="1" customWidth="1" min="4" max="4"/>
+    <col width="1" customWidth="1" min="5" max="5"/>
+    <col width="1" customWidth="1" min="6" max="6"/>
+    <col width="1" customWidth="1" min="7" max="7"/>
+    <col width="1" customWidth="1" min="8" max="8"/>
+    <col width="1" customWidth="1" min="9" max="9"/>
+    <col width="1" customWidth="1" min="10" max="10"/>
+    <col width="1" customWidth="1" min="11" max="11"/>
+    <col width="1" customWidth="1" min="12" max="12"/>
+    <col width="1" customWidth="1" min="13" max="13"/>
+    <col width="1" customWidth="1" min="14" max="14"/>
+    <col width="1" customWidth="1" min="15" max="15"/>
+    <col width="1" customWidth="1" min="16" max="16"/>
+    <col width="1" customWidth="1" min="17" max="17"/>
+    <col width="1" customWidth="1" min="18" max="18"/>
+    <col width="1" customWidth="1" min="19" max="19"/>
+    <col width="1" customWidth="1" min="20" max="20"/>
+    <col width="1" customWidth="1" min="21" max="21"/>
+    <col width="1" customWidth="1" min="22" max="22"/>
+    <col width="1" customWidth="1" min="23" max="23"/>
+    <col width="1" customWidth="1" min="24" max="24"/>
+    <col width="1" customWidth="1" min="25" max="25"/>
+    <col width="1" customWidth="1" min="26" max="26"/>
+    <col width="1" customWidth="1" min="27" max="27"/>
+    <col width="1" customWidth="1" min="28" max="28"/>
+    <col width="1" customWidth="1" min="29" max="29"/>
+    <col width="1" customWidth="1" min="30" max="30"/>
+    <col width="1" customWidth="1" min="31" max="31"/>
+    <col width="1" customWidth="1" min="32" max="32"/>
+    <col width="1" customWidth="1" min="33" max="33"/>
+    <col width="1" customWidth="1" min="34" max="34"/>
+    <col width="1" customWidth="1" min="35" max="35"/>
+    <col width="1" customWidth="1" min="36" max="36"/>
+    <col width="1" customWidth="1" min="37" max="37"/>
+    <col width="1" customWidth="1" min="38" max="38"/>
+    <col width="1" customWidth="1" min="39" max="39"/>
+    <col width="1" customWidth="1" min="40" max="40"/>
+    <col width="1" customWidth="1" min="41" max="41"/>
+    <col width="1" customWidth="1" min="42" max="42"/>
+    <col width="1" customWidth="1" min="43" max="43"/>
+    <col width="1" customWidth="1" min="44" max="44"/>
+    <col width="1" customWidth="1" min="45" max="45"/>
+    <col width="1" customWidth="1" min="46" max="46"/>
+    <col width="1" customWidth="1" min="47" max="47"/>
+    <col width="1" customWidth="1" min="48" max="48"/>
+    <col width="1" customWidth="1" min="49" max="49"/>
+    <col width="1" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
-    <row r="0" ht="30" customHeight="1"/>
-    <row r="1" ht="30" customHeight="1">
+    <row r="0" ht="6" customHeight="1"/>
+    <row r="1" ht="6" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="n"/>
@@ -11089,7 +11089,7 @@
       <c r="AW1" s="38" t="n"/>
       <c r="AX1" s="38" t="n"/>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" ht="6" customHeight="1">
       <c r="A2" s="39" t="n"/>
       <c r="B2" s="40" t="n"/>
       <c r="C2" s="41" t="n"/>
@@ -11141,7 +11141,7 @@
       <c r="AW2" s="69" t="n"/>
       <c r="AX2" s="68" t="n"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" ht="6" customHeight="1">
       <c r="A3" s="70" t="n"/>
       <c r="B3" s="42" t="n"/>
       <c r="C3" s="43" t="n"/>
@@ -11193,7 +11193,7 @@
       <c r="AW3" s="14" t="n"/>
       <c r="AX3" s="98" t="n"/>
     </row>
-    <row r="4" ht="30" customHeight="1">
+    <row r="4" ht="6" customHeight="1">
       <c r="A4" s="43" t="n"/>
       <c r="B4" s="8" t="n"/>
       <c r="C4" s="9" t="n"/>
@@ -11245,7 +11245,7 @@
       <c r="AW4" s="65" t="n"/>
       <c r="AX4" s="121" t="n"/>
     </row>
-    <row r="5" ht="30" customHeight="1">
+    <row r="5" ht="6" customHeight="1">
       <c r="A5" s="10" t="n"/>
       <c r="B5" s="10" t="n"/>
       <c r="C5" s="37" t="n"/>
@@ -11297,7 +11297,7 @@
       <c r="AW5" s="120" t="n"/>
       <c r="AX5" s="120" t="n"/>
     </row>
-    <row r="6" ht="30" customHeight="1">
+    <row r="6" ht="6" customHeight="1">
       <c r="A6" s="37" t="n"/>
       <c r="B6" s="37" t="n"/>
       <c r="C6" s="11" t="n"/>
@@ -11349,7 +11349,7 @@
       <c r="AW6" s="93" t="n"/>
       <c r="AX6" s="99" t="n"/>
     </row>
-    <row r="7" ht="30" customHeight="1">
+    <row r="7" ht="6" customHeight="1">
       <c r="A7" s="11" t="n"/>
       <c r="B7" s="37" t="n"/>
       <c r="C7" s="11" t="n"/>
@@ -11401,7 +11401,7 @@
       <c r="AW7" s="62" t="n"/>
       <c r="AX7" s="63" t="n"/>
     </row>
-    <row r="8" ht="30" customHeight="1">
+    <row r="8" ht="6" customHeight="1">
       <c r="A8" s="36" t="n"/>
       <c r="B8" s="36" t="n"/>
       <c r="C8" s="13" t="n"/>
@@ -11453,7 +11453,7 @@
       <c r="AW8" s="62" t="n"/>
       <c r="AX8" s="62" t="n"/>
     </row>
-    <row r="9" ht="30" customHeight="1">
+    <row r="9" ht="6" customHeight="1">
       <c r="A9" s="14" t="n"/>
       <c r="B9" s="66" t="n"/>
       <c r="C9" s="14" t="n"/>
@@ -11505,7 +11505,7 @@
       <c r="AW9" s="58" t="n"/>
       <c r="AX9" s="58" t="n"/>
     </row>
-    <row r="10" ht="30" customHeight="1">
+    <row r="10" ht="6" customHeight="1">
       <c r="A10" s="121" t="n"/>
       <c r="B10" s="120" t="n"/>
       <c r="C10" s="120" t="n"/>
@@ -11557,7 +11557,7 @@
       <c r="AW10" s="91" t="n"/>
       <c r="AX10" s="58" t="n"/>
     </row>
-    <row r="11" ht="30" customHeight="1">
+    <row r="11" ht="6" customHeight="1">
       <c r="A11" s="120" t="n"/>
       <c r="B11" s="99" t="n"/>
       <c r="C11" s="29" t="n"/>
@@ -11609,7 +11609,7 @@
       <c r="AW11" s="91" t="n"/>
       <c r="AX11" s="58" t="n"/>
     </row>
-    <row r="12" ht="30" customHeight="1">
+    <row r="12" ht="6" customHeight="1">
       <c r="A12" s="99" t="n"/>
       <c r="B12" s="29" t="n"/>
       <c r="C12" s="26" t="n"/>
@@ -11661,7 +11661,7 @@
       <c r="AW12" s="87" t="n"/>
       <c r="AX12" s="87" t="n"/>
     </row>
-    <row r="13" ht="30" customHeight="1">
+    <row r="13" ht="6" customHeight="1">
       <c r="A13" s="26" t="n"/>
       <c r="B13" s="26" t="n"/>
       <c r="C13" s="172" t="n"/>
@@ -11713,7 +11713,7 @@
       <c r="AW13" s="117" t="n"/>
       <c r="AX13" s="88" t="n"/>
     </row>
-    <row r="14" ht="30" customHeight="1">
+    <row r="14" ht="6" customHeight="1">
       <c r="A14" s="26" t="n"/>
       <c r="B14" s="172" t="n"/>
       <c r="C14" s="360" t="n"/>
@@ -11765,7 +11765,7 @@
       <c r="AW14" s="117" t="n"/>
       <c r="AX14" s="88" t="n"/>
     </row>
-    <row r="15" ht="30" customHeight="1">
+    <row r="15" ht="6" customHeight="1">
       <c r="A15" s="26" t="n"/>
       <c r="B15" s="360" t="n"/>
       <c r="C15" s="390" t="n"/>
@@ -11817,7 +11817,7 @@
       <c r="AW15" s="117" t="n"/>
       <c r="AX15" s="88" t="n"/>
     </row>
-    <row r="16" ht="30" customHeight="1">
+    <row r="16" ht="6" customHeight="1">
       <c r="A16" s="26" t="n"/>
       <c r="B16" s="172" t="n"/>
       <c r="C16" s="390" t="n"/>
@@ -11869,7 +11869,7 @@
       <c r="AW16" s="143" t="n"/>
       <c r="AX16" s="118" t="n"/>
     </row>
-    <row r="17" ht="30" customHeight="1">
+    <row r="17" ht="6" customHeight="1">
       <c r="A17" s="172" t="n"/>
       <c r="B17" s="360" t="n"/>
       <c r="C17" s="331" t="n"/>
@@ -11921,7 +11921,7 @@
       <c r="AW17" s="170" t="n"/>
       <c r="AX17" s="118" t="n"/>
     </row>
-    <row r="18" ht="30" customHeight="1">
+    <row r="18" ht="6" customHeight="1">
       <c r="A18" s="360" t="n"/>
       <c r="B18" s="390" t="n"/>
       <c r="C18" s="87" t="n"/>
@@ -11973,7 +11973,7 @@
       <c r="AW18" s="170" t="n"/>
       <c r="AX18" s="225" t="n"/>
     </row>
-    <row r="19" ht="30" customHeight="1">
+    <row r="19" ht="6" customHeight="1">
       <c r="A19" s="360" t="n"/>
       <c r="B19" s="444" t="n"/>
       <c r="C19" s="117" t="n"/>
@@ -12025,7 +12025,7 @@
       <c r="AW19" s="169" t="n"/>
       <c r="AX19" s="143" t="n"/>
     </row>
-    <row r="20" ht="30" customHeight="1">
+    <row r="20" ht="6" customHeight="1">
       <c r="A20" s="390" t="n"/>
       <c r="B20" s="167" t="n"/>
       <c r="C20" s="117" t="n"/>
@@ -12077,7 +12077,7 @@
       <c r="AW20" s="330" t="n"/>
       <c r="AX20" s="170" t="n"/>
     </row>
-    <row r="21" ht="30" customHeight="1">
+    <row r="21" ht="6" customHeight="1">
       <c r="A21" s="570" t="n"/>
       <c r="B21" s="117" t="n"/>
       <c r="C21" s="118" t="n"/>
@@ -12129,7 +12129,7 @@
       <c r="AW21" s="330" t="n"/>
       <c r="AX21" s="170" t="n"/>
     </row>
-    <row r="22" ht="30" customHeight="1">
+    <row r="22" ht="6" customHeight="1">
       <c r="A22" s="570" t="n"/>
       <c r="B22" s="117" t="n"/>
       <c r="C22" s="118" t="n"/>
@@ -12181,7 +12181,7 @@
       <c r="AW22" s="224" t="n"/>
       <c r="AX22" s="170" t="n"/>
     </row>
-    <row r="23" ht="30" customHeight="1">
+    <row r="23" ht="6" customHeight="1">
       <c r="A23" s="570" t="n"/>
       <c r="B23" s="88" t="n"/>
       <c r="C23" s="118" t="n"/>
@@ -12233,7 +12233,7 @@
       <c r="AW23" s="224" t="n"/>
       <c r="AX23" s="169" t="n"/>
     </row>
-    <row r="24" ht="30" customHeight="1">
+    <row r="24" ht="6" customHeight="1">
       <c r="A24" s="570" t="n"/>
       <c r="B24" s="357" t="n"/>
       <c r="C24" s="118" t="n"/>
@@ -12285,7 +12285,7 @@
       <c r="AW24" s="330" t="n"/>
       <c r="AX24" s="169" t="n"/>
     </row>
-    <row r="25" ht="30" customHeight="1">
+    <row r="25" ht="6" customHeight="1">
       <c r="A25" s="89" t="n"/>
       <c r="B25" s="88" t="n"/>
       <c r="C25" s="118" t="n"/>
@@ -12337,7 +12337,7 @@
       <c r="AW25" s="299" t="n"/>
       <c r="AX25" s="168" t="n"/>
     </row>
-    <row r="26" ht="30" customHeight="1">
+    <row r="26" ht="6" customHeight="1">
       <c r="A26" s="570" t="n"/>
       <c r="B26" s="357" t="n"/>
       <c r="C26" s="143" t="n"/>
@@ -12389,7 +12389,7 @@
       <c r="AW26" s="330" t="n"/>
       <c r="AX26" s="169" t="n"/>
     </row>
-    <row r="27" ht="30" customHeight="1">
+    <row r="27" ht="6" customHeight="1">
       <c r="A27" s="570" t="n"/>
       <c r="B27" s="357" t="n"/>
       <c r="C27" s="143" t="n"/>
@@ -12441,7 +12441,7 @@
       <c r="AW27" s="330" t="n"/>
       <c r="AX27" s="169" t="n"/>
     </row>
-    <row r="28" ht="30" customHeight="1">
+    <row r="28" ht="6" customHeight="1">
       <c r="A28" s="570" t="n"/>
       <c r="B28" s="274" t="n"/>
       <c r="C28" s="760" t="n"/>
@@ -12493,7 +12493,7 @@
       <c r="AW28" s="389" t="n"/>
       <c r="AX28" s="224" t="n"/>
     </row>
-    <row r="29" ht="30" customHeight="1">
+    <row r="29" ht="6" customHeight="1">
       <c r="A29" s="570" t="n"/>
       <c r="B29" s="274" t="n"/>
       <c r="C29" s="760" t="n"/>
@@ -12545,7 +12545,7 @@
       <c r="AW29" s="477" t="n"/>
       <c r="AX29" s="807" t="n"/>
     </row>
-    <row r="30" ht="30" customHeight="1">
+    <row r="30" ht="6" customHeight="1">
       <c r="A30" s="570" t="n"/>
       <c r="B30" s="274" t="n"/>
       <c r="C30" s="760" t="n"/>
@@ -12597,7 +12597,7 @@
       <c r="AW30" s="508" t="n"/>
       <c r="AX30" s="224" t="n"/>
     </row>
-    <row r="31" ht="30" customHeight="1">
+    <row r="31" ht="6" customHeight="1">
       <c r="A31" s="570" t="n"/>
       <c r="B31" s="357" t="n"/>
       <c r="C31" s="274" t="n"/>
@@ -12649,7 +12649,7 @@
       <c r="AW31" s="477" t="n"/>
       <c r="AX31" s="807" t="n"/>
     </row>
-    <row r="32" ht="30" customHeight="1">
+    <row r="32" ht="6" customHeight="1">
       <c r="A32" s="249" t="n"/>
       <c r="B32" s="357" t="n"/>
       <c r="C32" s="274" t="n"/>
@@ -12701,7 +12701,7 @@
       <c r="AW32" s="299" t="n"/>
       <c r="AX32" s="169" t="n"/>
     </row>
-    <row r="33" ht="30" customHeight="1">
+    <row r="33" ht="6" customHeight="1">
       <c r="A33" s="249" t="n"/>
       <c r="B33" s="570" t="n"/>
       <c r="C33" s="357" t="n"/>
@@ -12753,7 +12753,7 @@
       <c r="AW33" s="224" t="n"/>
       <c r="AX33" s="170" t="n"/>
     </row>
-    <row r="34" ht="30" customHeight="1">
+    <row r="34" ht="6" customHeight="1">
       <c r="A34" s="887" t="n"/>
       <c r="B34" s="249" t="n"/>
       <c r="C34" s="357" t="n"/>
@@ -12805,7 +12805,7 @@
       <c r="AW34" s="169" t="n"/>
       <c r="AX34" s="170" t="n"/>
     </row>
-    <row r="35" ht="30" customHeight="1">
+    <row r="35" ht="6" customHeight="1">
       <c r="A35" s="906" t="n"/>
       <c r="B35" s="249" t="n"/>
       <c r="C35" s="570" t="n"/>
@@ -12857,7 +12857,7 @@
       <c r="AW35" s="169" t="n"/>
       <c r="AX35" s="143" t="n"/>
     </row>
-    <row r="36" ht="30" customHeight="1">
+    <row r="36" ht="6" customHeight="1">
       <c r="A36" s="906" t="n"/>
       <c r="B36" s="887" t="n"/>
       <c r="C36" s="570" t="n"/>
@@ -12909,7 +12909,7 @@
       <c r="AW36" s="169" t="n"/>
       <c r="AX36" s="143" t="n"/>
     </row>
-    <row r="37" ht="30" customHeight="1">
+    <row r="37" ht="6" customHeight="1">
       <c r="A37" s="943" t="n"/>
       <c r="B37" s="906" t="n"/>
       <c r="C37" s="944" t="n"/>
@@ -12961,7 +12961,7 @@
       <c r="AW37" s="170" t="n"/>
       <c r="AX37" s="143" t="n"/>
     </row>
-    <row r="38" ht="30" customHeight="1">
+    <row r="38" ht="6" customHeight="1">
       <c r="A38" s="29" t="n"/>
       <c r="B38" s="972" t="n"/>
       <c r="C38" s="973" t="n"/>
@@ -13013,7 +13013,7 @@
       <c r="AW38" s="169" t="n"/>
       <c r="AX38" s="143" t="n"/>
     </row>
-    <row r="39" ht="30" customHeight="1">
+    <row r="39" ht="6" customHeight="1">
       <c r="A39" s="99" t="n"/>
       <c r="B39" s="1003" t="n"/>
       <c r="C39" s="978" t="n"/>
@@ -13065,7 +13065,7 @@
       <c r="AW39" s="170" t="n"/>
       <c r="AX39" s="1035" t="n"/>
     </row>
-    <row r="40" ht="30" customHeight="1">
+    <row r="40" ht="6" customHeight="1">
       <c r="A40" s="1036" t="n"/>
       <c r="B40" s="1037" t="n"/>
       <c r="C40" s="1038" t="n"/>
@@ -13117,7 +13117,7 @@
       <c r="AW40" s="1079" t="n"/>
       <c r="AX40" s="1080" t="n"/>
     </row>
-    <row r="41" ht="30" customHeight="1">
+    <row r="41" ht="6" customHeight="1">
       <c r="A41" s="870" t="n"/>
       <c r="B41" s="1081" t="n"/>
       <c r="C41" s="1082" t="n"/>
@@ -13169,7 +13169,7 @@
       <c r="AW41" s="1120" t="n"/>
       <c r="AX41" s="1121" t="n"/>
     </row>
-    <row r="42" ht="30" customHeight="1">
+    <row r="42" ht="6" customHeight="1">
       <c r="A42" s="1122" t="n"/>
       <c r="B42" s="1123" t="n"/>
       <c r="C42" s="1124" t="n"/>
@@ -13221,7 +13221,7 @@
       <c r="AW42" s="1164" t="n"/>
       <c r="AX42" s="1165" t="n"/>
     </row>
-    <row r="43" ht="30" customHeight="1">
+    <row r="43" ht="6" customHeight="1">
       <c r="A43" s="1166" t="n"/>
       <c r="B43" s="1167" t="n"/>
       <c r="C43" s="1009" t="n"/>
@@ -13273,7 +13273,7 @@
       <c r="AW43" s="1208" t="n"/>
       <c r="AX43" s="1209" t="n"/>
     </row>
-    <row r="44" ht="30" customHeight="1">
+    <row r="44" ht="6" customHeight="1">
       <c r="A44" s="1210" t="n"/>
       <c r="B44" s="1211" t="n"/>
       <c r="C44" s="1212" t="n"/>
@@ -13325,7 +13325,7 @@
       <c r="AW44" s="1254" t="n"/>
       <c r="AX44" s="1255" t="n"/>
     </row>
-    <row r="45" ht="30" customHeight="1">
+    <row r="45" ht="6" customHeight="1">
       <c r="A45" s="1256" t="n"/>
       <c r="B45" s="1257" t="n"/>
       <c r="C45" s="1258" t="n"/>
@@ -13377,7 +13377,7 @@
       <c r="AW45" s="1299" t="n"/>
       <c r="AX45" s="1300" t="n"/>
     </row>
-    <row r="46" ht="30" customHeight="1">
+    <row r="46" ht="6" customHeight="1">
       <c r="A46" s="1301" t="n"/>
       <c r="B46" s="1302" t="n"/>
       <c r="C46" s="1303" t="n"/>
@@ -13429,7 +13429,7 @@
       <c r="AW46" s="1341" t="n"/>
       <c r="AX46" s="1342" t="n"/>
     </row>
-    <row r="47" ht="30" customHeight="1">
+    <row r="47" ht="6" customHeight="1">
       <c r="A47" s="1343" t="n"/>
       <c r="B47" s="1344" t="n"/>
       <c r="C47" s="1345" t="n"/>
@@ -13481,7 +13481,7 @@
       <c r="AW47" s="1381" t="n"/>
       <c r="AX47" s="1382" t="n"/>
     </row>
-    <row r="48" ht="30" customHeight="1">
+    <row r="48" ht="6" customHeight="1">
       <c r="A48" s="1383" t="n"/>
       <c r="B48" s="1384" t="n"/>
       <c r="C48" s="1385" t="n"/>
@@ -13533,7 +13533,7 @@
       <c r="AW48" s="1423" t="n"/>
       <c r="AX48" s="1424" t="n"/>
     </row>
-    <row r="49" ht="30" customHeight="1">
+    <row r="49" ht="6" customHeight="1">
       <c r="A49" s="1043" t="n"/>
       <c r="B49" s="1129" t="n"/>
       <c r="C49" s="1425" t="n"/>
